--- a/PredictionSheets/VM 2014 Tippekonkuranse - Øystein.xlsx
+++ b/PredictionSheets/VM 2014 Tippekonkuranse - Øystein.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\GitHub\VMTipping\PredictionSheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="0" windowWidth="25365" windowHeight="14265"/>
+    <workbookView xWindow="2100" yWindow="0" windowWidth="25365" windowHeight="14265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppespilltipp" sheetId="1" r:id="rId1"/>
     <sheet name="Sluttspilltipp" sheetId="2" r:id="rId2"/>
     <sheet name="Kampoppsett" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="138">
   <si>
     <t>Group A</t>
   </si>
@@ -164,9 +169,6 @@
     <t>Sluttspill</t>
   </si>
   <si>
-    <t>Andreplass Gruppe C</t>
-  </si>
-  <si>
     <t>Lag i kvartfinaler:</t>
   </si>
   <si>
@@ -425,37 +427,19 @@
     <t>Brasil</t>
   </si>
   <si>
-    <t>Kroatia</t>
-  </si>
-  <si>
-    <t>Elfenbenkysten</t>
-  </si>
-  <si>
     <t>Frankrike</t>
   </si>
   <si>
-    <t>Tyskland</t>
-  </si>
-  <si>
     <t>Spania</t>
   </si>
   <si>
-    <t>Nederland</t>
-  </si>
-  <si>
     <t>Italia</t>
   </si>
   <si>
-    <t>Sveits</t>
-  </si>
-  <si>
     <t>Belgia</t>
   </si>
   <si>
     <t>Russland</t>
-  </si>
-  <si>
-    <t>Spnaia</t>
   </si>
 </sst>
 </file>
@@ -1801,13 +1785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -1837,10 +1821,10 @@
         <v>45</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
@@ -1924,7 +1908,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>21</v>
@@ -1991,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>21</v>
@@ -2807,13 +2791,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,32 +2815,32 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>136</v>
-      </c>
       <c r="D4" s="24" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>32</v>
@@ -2864,7 +2848,7 @@
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>16</v>
@@ -2873,26 +2857,26 @@
         <v>26</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -2900,46 +2884,46 @@
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>136</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>26</v>
@@ -2947,21 +2931,21 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +2961,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2997,10 +2981,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3008,16 +2992,16 @@
         <v>41802</v>
       </c>
       <c r="B2" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>55</v>
       </c>
       <c r="D2" s="53">
         <v>0.91666666666666663</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="48"/>
     </row>
@@ -3026,10 +3010,10 @@
         <v>41803</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="56">
         <v>0.75</v>
@@ -3041,7 +3025,7 @@
         <v>49</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" s="71"/>
       <c r="J3" s="72">
@@ -3053,10 +3037,10 @@
         <v>41807</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="56">
         <v>0.875</v>
@@ -3068,7 +3052,7 @@
         <v>50</v>
       </c>
       <c r="H4" s="75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="75"/>
       <c r="J4" s="76">
@@ -3080,10 +3064,10 @@
         <v>41809</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="56">
         <v>1</v>
@@ -3095,7 +3079,7 @@
         <v>51</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I5" s="75"/>
       <c r="J5" s="76">
@@ -3107,10 +3091,10 @@
         <v>41813</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="56">
         <v>0.91666666666666663</v>
@@ -3122,7 +3106,7 @@
         <v>52</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I6" s="75"/>
       <c r="J6" s="76">
@@ -3134,10 +3118,10 @@
         <v>41813</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="60">
         <v>0.91666666666666663</v>
@@ -3149,7 +3133,7 @@
         <v>53</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I7" s="75"/>
       <c r="J7" s="76">
@@ -3168,7 +3152,7 @@
         <v>54</v>
       </c>
       <c r="H8" s="75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="75"/>
       <c r="J8" s="76">
@@ -3180,10 +3164,10 @@
         <v>41803</v>
       </c>
       <c r="B9" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>61</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>62</v>
       </c>
       <c r="D9" s="53">
         <v>0.875</v>
@@ -3195,7 +3179,7 @@
         <v>55</v>
       </c>
       <c r="H9" s="75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I9" s="75"/>
       <c r="J9" s="76">
@@ -3207,10 +3191,10 @@
         <v>41804</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="56">
         <v>1</v>
@@ -3222,7 +3206,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="79"/>
       <c r="J10" s="80">
@@ -3234,10 +3218,10 @@
         <v>41808</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="56">
         <v>0.75</v>
@@ -3250,16 +3234,16 @@
         <v>41808</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="56">
         <v>0.875</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" s="49"/>
     </row>
@@ -3268,10 +3252,10 @@
         <v>41813</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="56">
         <v>0.75</v>
@@ -3283,7 +3267,7 @@
         <v>57</v>
       </c>
       <c r="H13" s="71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I13" s="71"/>
       <c r="J13" s="72">
@@ -3295,10 +3279,10 @@
         <v>41813</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="60">
         <v>0.75</v>
@@ -3310,7 +3294,7 @@
         <v>58</v>
       </c>
       <c r="H14" s="75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I14" s="75"/>
       <c r="J14" s="76">
@@ -3329,7 +3313,7 @@
         <v>59</v>
       </c>
       <c r="H15" s="75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I15" s="75"/>
       <c r="J15" s="76">
@@ -3341,10 +3325,10 @@
         <v>41804</v>
       </c>
       <c r="B16" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="52" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>69</v>
       </c>
       <c r="D16" s="53">
         <v>0.75</v>
@@ -3357,7 +3341,7 @@
         <v>60</v>
       </c>
       <c r="H16" s="79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I16" s="79"/>
       <c r="J16" s="80">
@@ -3371,10 +3355,10 @@
         <v>41805</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="56">
         <v>0.125</v>
@@ -3387,16 +3371,16 @@
         <v>41809</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="56">
         <v>0.75</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="49"/>
     </row>
@@ -3405,10 +3389,10 @@
         <v>41810</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="56">
         <v>1</v>
@@ -3420,7 +3404,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I19" s="71"/>
       <c r="J19" s="72">
@@ -3432,10 +3416,10 @@
         <v>41814</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="56">
         <v>0.91666666666666663</v>
@@ -3447,7 +3431,7 @@
         <v>62</v>
       </c>
       <c r="H20" s="79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I20" s="79"/>
       <c r="J20" s="80">
@@ -3459,10 +3443,10 @@
         <v>41814</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="60">
         <v>0.91666666666666663</v>
@@ -3476,7 +3460,7 @@
       <c r="C22" s="21"/>
       <c r="D22" s="63"/>
       <c r="F22" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="66"/>
     </row>
@@ -3485,10 +3469,10 @@
         <v>41804</v>
       </c>
       <c r="B23" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="52" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>76</v>
       </c>
       <c r="D23" s="53">
         <v>0.875</v>
@@ -3498,7 +3482,7 @@
       </c>
       <c r="G23" s="82"/>
       <c r="H23" s="83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I23" s="83"/>
       <c r="J23" s="84">
@@ -3510,10 +3494,10 @@
         <v>41805</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="56">
         <v>1</v>
@@ -3526,16 +3510,16 @@
         <v>41809</v>
       </c>
       <c r="B25" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="56">
         <v>0.75</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="49"/>
     </row>
@@ -3544,10 +3528,10 @@
         <v>41810</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="56">
         <v>0.875</v>
@@ -3557,7 +3541,7 @@
       </c>
       <c r="G26" s="82"/>
       <c r="H26" s="83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I26" s="83"/>
       <c r="J26" s="84">
@@ -3569,10 +3553,10 @@
         <v>41814</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="56">
         <v>0.75</v>
@@ -3584,10 +3568,10 @@
         <v>41814</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="60">
         <v>0.75</v>
@@ -3607,10 +3591,10 @@
         <v>41805</v>
       </c>
       <c r="B30" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="52" t="s">
         <v>82</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>83</v>
       </c>
       <c r="D30" s="53">
         <v>0.75</v>
@@ -3625,10 +3609,10 @@
         <v>41805</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="56">
         <v>0.875</v>
@@ -3640,10 +3624,10 @@
         <v>41810</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="56">
         <v>0.875</v>
@@ -3655,10 +3639,10 @@
         <v>41811</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="56">
         <v>1</v>
@@ -3670,10 +3654,10 @@
         <v>41815</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="56">
         <v>0.91666666666666663</v>
@@ -3685,10 +3669,10 @@
         <v>41815</v>
       </c>
       <c r="B35" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D35" s="60">
         <v>0.91666666666666663</v>
@@ -3707,10 +3691,10 @@
         <v>41806</v>
       </c>
       <c r="B37" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="52" t="s">
         <v>89</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>90</v>
       </c>
       <c r="D37" s="53">
         <v>1</v>
@@ -3721,10 +3705,10 @@
         <v>41806</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="56">
         <v>0.875</v>
@@ -3735,10 +3719,10 @@
         <v>41811</v>
       </c>
       <c r="B39" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="56">
         <v>0.75</v>
@@ -3749,10 +3733,10 @@
         <v>41812</v>
       </c>
       <c r="B40" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="56">
         <v>1</v>
@@ -3763,10 +3747,10 @@
         <v>41815</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="56">
         <v>0.75</v>
@@ -3777,10 +3761,10 @@
         <v>41815</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="60">
         <v>0.75</v>
@@ -3798,10 +3782,10 @@
         <v>41806</v>
       </c>
       <c r="B44" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="52" t="s">
         <v>96</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>97</v>
       </c>
       <c r="D44" s="53">
         <v>0.75</v>
@@ -3812,10 +3796,10 @@
         <v>41807</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="56">
         <v>24</v>
@@ -3826,10 +3810,10 @@
         <v>41811</v>
       </c>
       <c r="B46" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" s="56">
         <v>0.875</v>
@@ -3840,10 +3824,10 @@
         <v>41813</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" s="56">
         <v>24</v>
@@ -3854,10 +3838,10 @@
         <v>41816</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" s="56">
         <v>0.75</v>
@@ -3868,10 +3852,10 @@
         <v>41816</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="60">
         <v>0.75</v>
@@ -3889,10 +3873,10 @@
         <v>41807</v>
       </c>
       <c r="B51" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="52" t="s">
         <v>103</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>104</v>
       </c>
       <c r="D51" s="53">
         <v>0.75</v>
@@ -3903,10 +3887,10 @@
         <v>41808</v>
       </c>
       <c r="B52" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D52" s="56">
         <v>0</v>
@@ -3917,10 +3901,10 @@
         <v>41812</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D53" s="56">
         <v>0.75</v>
@@ -3931,10 +3915,10 @@
         <v>41812</v>
       </c>
       <c r="B54" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D54" s="56">
         <v>0.875</v>
@@ -3945,10 +3929,10 @@
         <v>41816</v>
       </c>
       <c r="B55" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55" s="56">
         <v>0.91666666666666663</v>
@@ -3959,10 +3943,10 @@
         <v>41816</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D56" s="60">
         <v>0.91666666666666663</v>
